--- a/Part2/Tables/numerical_feature_skewness_and.xlsx
+++ b/Part2/Tables/numerical_feature_skewness_and.xlsx
@@ -49,12 +49,12 @@
     <t>hours-per-week</t>
   </si>
   <si>
+    <t>Long right tail</t>
+  </si>
+  <si>
     <t>Very long right tail</t>
   </si>
   <si>
-    <t>Long right tail</t>
-  </si>
-  <si>
     <t>Approximately symmetric</t>
   </si>
   <si>
@@ -64,7 +64,7 @@
     <t>Heavy tails, leptokurtic</t>
   </si>
   <si>
-    <t>Approximately normal, mesokurtic</t>
+    <t>Approximately normal tails, mesokurtic</t>
   </si>
 </sst>
 </file>
